--- a/database/files/business-upload/product_classification_upload_template.xlsx
+++ b/database/files/business-upload/product_classification_upload_template.xlsx
@@ -5,16 +5,14 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\Documents\cisco\tasks\business upload\arindam\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dakahle\work\fin-dfa\database\files\business-upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="HWSW Split%" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="80000"/>
 </workbook>
@@ -36,6 +34,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>indicates that the field is mandatory</t>
     </r>
@@ -60,7 +59,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -73,6 +72,11 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -437,7 +441,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -505,32 +509,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>